--- a/Игры.xlsx
+++ b/Игры.xlsx
@@ -130,13 +130,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -159,10 +163,10 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -176,25 +180,25 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Игры.xlsx
+++ b/Игры.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Игра</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">Вкл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кэфф.</t>
   </si>
   <si>
     <t xml:space="preserve">ЧГК</t>
@@ -130,17 +133,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -160,13 +159,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -178,27 +177,36 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="B2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
